--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1379CDC4-2243-4167-8881-6595E7068DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>SlNo</t>
   </si>
@@ -39,11 +40,56 @@
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
+  <si>
+    <t>ArrayList Program</t>
+  </si>
+  <si>
+    <t>BPMN Task</t>
+  </si>
+  <si>
+    <t>Training for java</t>
+  </si>
+  <si>
+    <t>BPMN Introduction</t>
+  </si>
+  <si>
+    <t>Draw a  flow diagram using  Camunda moduler</t>
+  </si>
+  <si>
+    <t>program using arrraylist concept for add,delete,search and exit .</t>
+  </si>
+  <si>
+    <t>About Collections in java -Arraylist.</t>
+  </si>
+  <si>
+    <t>About How to draw a flow diagram using Camunda moduler</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>2 1/2 hrs</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Revised the training period learned concepts</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -247,6 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,11 +582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,13 +599,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
@@ -578,39 +625,73 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
@@ -1581,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1598,13 +1679,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1379CDC4-2243-4167-8881-6595E7068DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC1A2A-FF9A-421E-AEBD-B89E5ADEF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>BPMN Introduction</t>
   </si>
   <si>
-    <t>Draw a  flow diagram using  Camunda moduler</t>
-  </si>
-  <si>
     <t>program using arrraylist concept for add,delete,search and exit .</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>1 hrs</t>
+  </si>
+  <si>
+    <t>Drawn a  flow diagram using  Camunda moduler</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -648,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
@@ -674,23 +674,23 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC1A2A-FF9A-421E-AEBD-B89E5ADEF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B9E506-FFE1-4B35-84E0-C2F0FE81F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Drawn a  flow diagram using  Camunda moduler</t>
+  </si>
+  <si>
+    <t>Hashmap program</t>
+  </si>
+  <si>
+    <t>java training</t>
+  </si>
+  <si>
+    <t>Bpmn training</t>
+  </si>
+  <si>
+    <t>program using hashmap concepts for search,delete,insert,exit the values for student details</t>
+  </si>
+  <si>
+    <t>Linked list,Hashmap concepts</t>
+  </si>
+  <si>
+    <t>21/2 hrs</t>
+  </si>
+  <si>
+    <t>1hrs</t>
+  </si>
+  <si>
+    <t>Training for BPMN work flow for kitchen model</t>
+  </si>
+  <si>
+    <t>kitchen model task</t>
+  </si>
+  <si>
+    <t>4hrs</t>
   </si>
 </sst>
 </file>
@@ -586,14 +616,14 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
+    <col min="5" max="5" width="76.26953125" customWidth="1"/>
     <col min="6" max="6" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -694,39 +724,73 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B9E506-FFE1-4B35-84E0-C2F0FE81F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8045FB41-05B0-4CA5-B8E3-EFFE4958AA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>SlNo</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>4hrs</t>
+  </si>
+  <si>
+    <t>Hashmap,HashTable concepts and eclipse functions</t>
+  </si>
+  <si>
+    <t>21/2hrs</t>
+  </si>
+  <si>
+    <t>Hashtable program</t>
+  </si>
+  <si>
+    <t>program using hashmap for insert,search,update,remove values</t>
+  </si>
+  <si>
+    <t>31/2 hrs</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>Revised the training period learned concepts and also previous class learned topics</t>
   </si>
 </sst>
 </file>
@@ -616,7 +637,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,25 +814,47 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8045FB41-05B0-4CA5-B8E3-EFFE4958AA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD209F1-B313-481B-B1F3-BD212A58235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>SlNo</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>Revised the training period learned concepts and also previous class learned topics</t>
+  </si>
+  <si>
+    <t>Revised the concepts in core java and css html basic concepts</t>
+  </si>
+  <si>
+    <t>revised training period concepts about core java and learned basics of css html</t>
+  </si>
+  <si>
+    <t>2.30hrs</t>
+  </si>
+  <si>
+    <t>4.30hrs</t>
+  </si>
+  <si>
+    <t>Designed a web page using css html concepts-Various web pages designed</t>
+  </si>
+  <si>
+    <t>Html,css concepts</t>
   </si>
 </sst>
 </file>
@@ -637,7 +655,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,25 +875,47 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD209F1-B313-481B-B1F3-BD212A58235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B850F0F6-5E41-4710-9500-710B15EED216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>SlNo</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>Html,css concepts</t>
+  </si>
+  <si>
+    <t>BPM TRAINING</t>
+  </si>
+  <si>
+    <t>About BPM process and its flow diagram examples</t>
+  </si>
+  <si>
+    <t>About Servlets JSP Concepts and previously learned doubt concepts explained</t>
+  </si>
+  <si>
+    <t>HTML,CSS Webpage</t>
+  </si>
+  <si>
+    <t>To design a five webpages using css html concepts</t>
+  </si>
+  <si>
+    <t>Revised java training learned concepts and basics of BPM</t>
+  </si>
+  <si>
+    <t>1.30hrs</t>
   </si>
 </sst>
 </file>
@@ -654,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,32 +939,60 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B850F0F6-5E41-4710-9500-710B15EED216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD38ADC-DEB3-4B71-9DED-11E4D0552292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>SlNo</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>1.30hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS HTML </t>
+  </si>
+  <si>
+    <t>Revision about data structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revised the overall core java concepts </t>
+  </si>
+  <si>
+    <t>practice using css html concepts to design web page</t>
   </si>
 </sst>
 </file>
@@ -675,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,25 +1007,47 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD38ADC-DEB3-4B71-9DED-11E4D0552292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B019E6E0-8D37-4C18-9583-F7C2FF25FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>SlNo</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>practice using css html concepts to design web page</t>
+  </si>
+  <si>
+    <t>Servlet task</t>
+  </si>
+  <si>
+    <t>servlets concepts training</t>
+  </si>
+  <si>
+    <t>revised training period concepts about servlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To setup server configuration and to create 3 html file using servlet concept </t>
   </si>
 </sst>
 </file>
@@ -688,7 +700,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,25 +1062,47 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B019E6E0-8D37-4C18-9583-F7C2FF25FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D77B6-A9D8-4C69-B3B5-4A5A5FCB219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
     <t>revised training period concepts about servlets</t>
   </si>
   <si>
-    <t xml:space="preserve">To setup server configuration and to create 3 html file using servlet concept </t>
+    <t>To setup server configuration and to create 3 html file using servlet concepts</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D77B6-A9D8-4C69-B3B5-4A5A5FCB219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7D85B-3B35-424F-9858-8764BB9AD5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>SlNo</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>To setup server configuration and to create 3 html file using servlet concepts</t>
+  </si>
+  <si>
+    <t>HTML CSS</t>
+  </si>
+  <si>
+    <t>About sevlet basics,interface concepts,abstraction and exception concepts.</t>
+  </si>
+  <si>
+    <t>revised the training period learned concepts.</t>
+  </si>
+  <si>
+    <t>Studied basics of css and html concepts</t>
   </si>
 </sst>
 </file>
@@ -700,7 +712,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1105,25 +1117,47 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7D85B-3B35-424F-9858-8764BB9AD5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64545446-F42A-4F8D-B6BB-6ECF0BEEDBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,13 +203,13 @@
     <t>HTML CSS</t>
   </si>
   <si>
-    <t>About sevlet basics,interface concepts,abstraction and exception concepts.</t>
-  </si>
-  <si>
     <t>revised the training period learned concepts.</t>
   </si>
   <si>
     <t>Studied basics of css and html concepts</t>
+  </si>
+  <si>
+    <t>About servlet basics,interface concepts,abstraction and exception concepts.</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,7 +1127,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>40</v>
@@ -1140,7 +1140,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>36</v>
@@ -1153,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64545446-F42A-4F8D-B6BB-6ECF0BEEDBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E0D9AB-31E8-441A-A4E8-22CA572CB757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>SlNo</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>About servlet basics,interface concepts,abstraction and exception concepts.</t>
+  </si>
+  <si>
+    <t>css html training</t>
+  </si>
+  <si>
+    <t>Thread concepts-thread and multithread</t>
+  </si>
+  <si>
+    <t>CSS HTML class training</t>
+  </si>
+  <si>
+    <t>Revision done for thread concepts and css html tags and concepts</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>practiced using css html concepts</t>
   </si>
 </sst>
 </file>
@@ -711,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,32 +1181,60 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E0D9AB-31E8-441A-A4E8-22CA572CB757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5EE87-40B2-45FC-97B0-DC417953DAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>SlNo</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>practiced using css html concepts</t>
+  </si>
+  <si>
+    <t>core java concepts -Interface,Inheritance,Exception</t>
+  </si>
+  <si>
+    <t>About BPM -Basic elements,Open source tool,Types of Event,JBPM Features.</t>
+  </si>
+  <si>
+    <t>Revision of core java concepts and BPM session learned concepts studied.</t>
+  </si>
+  <si>
+    <t>4.30hrs/2.30hrs=7hrs</t>
   </si>
 </sst>
 </file>
@@ -732,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,25 +1249,47 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5EE87-40B2-45FC-97B0-DC417953DAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C9C9B-1B1C-40B1-B8AC-309847D0939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>SlNo</t>
   </si>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>4.30hrs/2.30hrs=7hrs</t>
+  </si>
+  <si>
+    <t>Issue resolution meeting</t>
+  </si>
+  <si>
+    <t>Exceptions and collection topics class</t>
+  </si>
+  <si>
+    <t>About jbpm features and explained how to do jbpm project</t>
+  </si>
+  <si>
+    <t>Revision of exception ,collection concepts and BPM session learned concepts studied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About training  - feedback </t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>jbpm task</t>
+  </si>
+  <si>
+    <t>created a sample project by using jbpm concepts</t>
   </si>
 </sst>
 </file>
@@ -744,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,39 +1316,73 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>11</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C9C9B-1B1C-40B1-B8AC-309847D0939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9764BD-D827-4B0E-B8DD-3788B86A14EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>SlNo</t>
   </si>
@@ -267,6 +267,42 @@
   </si>
   <si>
     <t>created a sample project by using jbpm concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised the java collections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jbpm concepts revised </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isssue resolution </t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVA </t>
+  </si>
+  <si>
+    <t>Java concepts revised-Collection-List concepts</t>
+  </si>
+  <si>
+    <t>JBPM</t>
+  </si>
+  <si>
+    <t>JBPM concepts revised and learned its basic functions-Tried to do a task -sample project</t>
+  </si>
+  <si>
+    <t>JAVA PRACTICE</t>
+  </si>
+  <si>
+    <t>Using list concepts-programs practiced</t>
+  </si>
+  <si>
+    <t>3.30hrs</t>
   </si>
 </sst>
 </file>
@@ -768,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,46 +1421,90 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>12</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="2">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9764BD-D827-4B0E-B8DD-3788B86A14EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6CBAD5-760D-49A7-99D4-1FA1FC8AEFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>SlNo</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>3.30hrs</t>
+  </si>
+  <si>
+    <t>Jbpm training</t>
+  </si>
+  <si>
+    <t>Training for  java collections-LIST AND SET CONCEPTS</t>
+  </si>
+  <si>
+    <t>Maven concepts and about how to import project and download the project in jbpm.And about its setting configuration.</t>
   </si>
 </sst>
 </file>
@@ -805,7 +814,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,18 +1516,34 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="B51" s="2">
+        <v>14</v>
+      </c>
+      <c r="C51" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6CBAD5-760D-49A7-99D4-1FA1FC8AEFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C60E6D-FBAA-45B9-9DF8-3EA7DCF3D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,12 +263,6 @@
     <t>30 mins</t>
   </si>
   <si>
-    <t>jbpm task</t>
-  </si>
-  <si>
-    <t>created a sample project by using jbpm concepts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revised the java collections </t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>Maven concepts and about how to import project and download the project in jbpm.And about its setting configuration.</t>
+  </si>
+  <si>
+    <t>jbpm task, Java Task</t>
+  </si>
+  <si>
+    <t>created a sample project by using jbpm concepts, created a program using arraylist for string type using length</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1420,10 +1420,10 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>18</v>
@@ -1440,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>36</v>
@@ -1450,10 +1450,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>30</v>
@@ -1463,13 +1463,13 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
@@ -1480,10 +1480,10 @@
         <v>44368</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>36</v>
@@ -1493,10 +1493,10 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>30</v>
@@ -1506,13 +1506,13 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
@@ -1526,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>67</v>
@@ -1536,10 +1536,10 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>50</v>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C60E6D-FBAA-45B9-9DF8-3EA7DCF3D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC69E43-61F2-467B-8B9B-EB81823740CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
   <si>
     <t>SlNo</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>created a sample project by using jbpm concepts, created a program using arraylist for string type using length</t>
+  </si>
+  <si>
+    <t>Revised list and set concepts-Arraylist,LinkedList,Hashset,Treeset</t>
+  </si>
+  <si>
+    <t>Practiced how to import project , create the user and setting option in jbpm.</t>
   </si>
 </sst>
 </file>
@@ -813,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1548,35 +1554,57 @@
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2">
+        <v>15</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC69E43-61F2-467B-8B9B-EB81823740CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A9DD8-17BD-4400-A208-3E97B0C7300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>SlNo</t>
   </si>
@@ -314,10 +314,31 @@
     <t>created a sample project by using jbpm concepts, created a program using arraylist for string type using length</t>
   </si>
   <si>
-    <t>Revised list and set concepts-Arraylist,LinkedList,Hashset,Treeset</t>
-  </si>
-  <si>
     <t>Practiced how to import project , create the user and setting option in jbpm.</t>
+  </si>
+  <si>
+    <t>Revised the java training cocncepts and collection concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studied about jbpm drools and jbpm basic concepts </t>
+  </si>
+  <si>
+    <t>Java task</t>
+  </si>
+  <si>
+    <t>Task practiced for java program using comparable interface for finding the employee name and id by sorting method</t>
+  </si>
+  <si>
+    <t>Revised list and set concepts-Arraylist,LinkedList,Hashset,LinkedHashset</t>
+  </si>
+  <si>
+    <t>Recording session has been watched for comparator , comparable interface,Treeset concepts</t>
+  </si>
+  <si>
+    <t>Get and Set values using string and int datatype .Gateway concepts in jbpm.</t>
+  </si>
+  <si>
+    <t>About previous concepts comparator and comparable interface concepts and program explained.And collection Map concepts.</t>
   </si>
 </sst>
 </file>
@@ -819,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>36</v>
@@ -1571,7 +1592,7 @@
         <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>91</v>
@@ -1587,8 +1608,12 @@
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
@@ -1596,8 +1621,12 @@
       <c r="D56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
@@ -1605,29 +1634,55 @@
       <c r="D57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="E57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="2">
+        <v>16</v>
+      </c>
+      <c r="C59" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A9DD8-17BD-4400-A208-3E97B0C7300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E70BA1-FE9B-4BF2-AE70-D0B98750F1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>SlNo</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>About previous concepts comparator and comparable interface concepts and program explained.And collection Map concepts.</t>
+  </si>
+  <si>
+    <t>JBPM TASK</t>
+  </si>
+  <si>
+    <t>Practiced task for exclusive,inclusive,parallel gateway and received output for that task.</t>
+  </si>
+  <si>
+    <t>revised set concepts treeset,hashset,comparator,comparable,overview of collections.</t>
   </si>
 </sst>
 </file>
@@ -840,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1681,22 +1690,34 @@
         <v>104</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E70BA1-FE9B-4BF2-AE70-D0B98750F1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3B434D-A312-4778-84DE-D28E895FDDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
   <si>
     <t>SlNo</t>
   </si>
@@ -348,6 +348,27 @@
   </si>
   <si>
     <t>revised set concepts treeset,hashset,comparator,comparable,overview of collections.</t>
+  </si>
+  <si>
+    <t>JBPM TRAINING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About sever,servlet concepts,web application,apache tomcat </t>
+  </si>
+  <si>
+    <t>Sub process -Reusable,Embedded</t>
+  </si>
+  <si>
+    <t>Revised basics of servlet concepts , spring and springboot basics studied</t>
+  </si>
+  <si>
+    <t>Practiced using Reusable  subprocess for get and set values.</t>
+  </si>
+  <si>
+    <t>Recordimg session</t>
+  </si>
+  <si>
+    <t>watched recording session for java and jbpm</t>
   </si>
 </sst>
 </file>
@@ -850,7 +871,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1720,39 +1741,73 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="2">
+        <v>17</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E70BA1-FE9B-4BF2-AE70-D0B98750F1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7C30D8-483B-4DF1-9D1D-4D5C905B8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
   <si>
     <t>SlNo</t>
   </si>
@@ -348,6 +348,39 @@
   </si>
   <si>
     <t>revised set concepts treeset,hashset,comparator,comparable,overview of collections.</t>
+  </si>
+  <si>
+    <t>Java Revision</t>
+  </si>
+  <si>
+    <t>SUBPROCESS-Embedded and Reusable Subprocess</t>
+  </si>
+  <si>
+    <t>Practiced using Reusable and Embedded subprocess</t>
+  </si>
+  <si>
+    <t>Multiple instance subprocess and user task concepts</t>
+  </si>
+  <si>
+    <t>Practiced using multiple instance subprocess and user task function.</t>
+  </si>
+  <si>
+    <t>Revised the Collection concepts,Servlet concepts,basics of html.</t>
+  </si>
+  <si>
+    <t>Record session</t>
+  </si>
+  <si>
+    <t>Watched record session for jbpm clarification</t>
+  </si>
+  <si>
+    <t>Treemap concepts , Servlet concepts training</t>
+  </si>
+  <si>
+    <t>revised the servlet concepts and also studied basics of html</t>
+  </si>
+  <si>
+    <t>Watched record session for jbpm and java training clarification</t>
   </si>
 </sst>
 </file>
@@ -849,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1720,67 +1753,129 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="2">
+        <v>17</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="2"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="B68" s="2">
+        <v>18</v>
+      </c>
+      <c r="C68" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="D71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7C30D8-483B-4DF1-9D1D-4D5C905B8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1CF85-9324-4967-8C2D-5C723BAC8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>SlNo</t>
   </si>
@@ -381,6 +381,36 @@
   </si>
   <si>
     <t>Watched record session for jbpm and java training clarification</t>
+  </si>
+  <si>
+    <t>Camunda session</t>
+  </si>
+  <si>
+    <t>JBPM session</t>
+  </si>
+  <si>
+    <t>Jbpm Practice</t>
+  </si>
+  <si>
+    <t>About Rest API,Client -Server concepts</t>
+  </si>
+  <si>
+    <t>About Servlet concepts,Html,Database concepts</t>
+  </si>
+  <si>
+    <t>Training About Java Data object concepts,Timer signals</t>
+  </si>
+  <si>
+    <t>Practiced using timer signals and data object concepts</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>Jbpm Session</t>
+  </si>
+  <si>
+    <t>Jbpm Task</t>
   </si>
 </sst>
 </file>
@@ -883,7 +913,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1878,65 +1908,111 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="2"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="B72" s="2">
+        <v>19</v>
+      </c>
+      <c r="C72" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="D75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="2"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="2">
+        <v>20</v>
+      </c>
+      <c r="C77" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>

--- a/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Madan/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1CF85-9324-4967-8C2D-5C723BAC8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E8B87-5F98-4A56-8007-22B3AB5CC284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>SlNo</t>
   </si>
@@ -407,10 +407,13 @@
     <t>Java Training</t>
   </si>
   <si>
-    <t>Jbpm Session</t>
-  </si>
-  <si>
-    <t>Jbpm Task</t>
+    <t>Practiced the jbpm tool using signals,Timer concepts</t>
+  </si>
+  <si>
+    <t>Revised the servlet,dependency injection,ioc and container concepts.</t>
+  </si>
+  <si>
+    <t>Training for servlet concepts ,Dependency injection,Inversion of control,Container,spring mvc concepts.</t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1986,17 +1989,25 @@
       <c r="D77" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="E77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
@@ -2004,15 +2015,17 @@
       <c r="D79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="E79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
